--- a/Deliverables/D2/steadystate.xlsx
+++ b/Deliverables/D2/steadystate.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="steadystate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2188,11 +2188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110694400"/>
-        <c:axId val="110196992"/>
+        <c:axId val="138299264"/>
+        <c:axId val="141303808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110694400"/>
+        <c:axId val="138299264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -2228,12 +2228,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110196992"/>
+        <c:crossAx val="141303808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110196992"/>
+        <c:axId val="141303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2268,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110694400"/>
+        <c:crossAx val="138299264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3909,11 +3909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155455872"/>
-        <c:axId val="155457792"/>
+        <c:axId val="141311360"/>
+        <c:axId val="141329920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155455872"/>
+        <c:axId val="141311360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -3949,12 +3949,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155457792"/>
+        <c:crossAx val="141329920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155457792"/>
+        <c:axId val="141329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3984,7 +3984,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155455872"/>
+        <c:crossAx val="141311360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4357,7 +4357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
